--- a/04DataViz/A2c/05GridEmission/gridEmission.xlsx
+++ b/04DataViz/A2c/05GridEmission/gridEmission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIML\04DataViz\A2c\05GridEmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504728E6-DE55-4595-8AB4-F4D80CE768C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC05ECB-B0CD-42C7-9872-C2D0D6090683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>renewableGWh</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>EmissionIntensity</t>
+  </si>
+  <si>
+    <t>renewablePercentage</t>
   </si>
 </sst>
 </file>
@@ -368,18 +371,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" customWidth="1"/>
+    <col min="5" max="5" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -395,8 +401,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -412,8 +421,11 @@
       <c r="E2">
         <v>0.75604551223865579</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2">
+        <v>14.140310936077805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -429,8 +441,11 @@
       <c r="E3">
         <v>0.73552899664748872</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3">
+        <v>16.27823550973288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -446,8 +461,11 @@
       <c r="E4">
         <v>0.72840844306898211</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4">
+        <v>15.228878202613409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -463,8 +481,11 @@
       <c r="E5">
         <v>0.69014689848179167</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5">
+        <v>18.927832428771076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -480,8 +501,11 @@
       <c r="E6">
         <v>0.66146640026857251</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6">
+        <v>20.918297541709258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -497,8 +521,11 @@
       <c r="E7">
         <v>0.6310440089653877</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7">
+        <v>24.388267283563302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -514,8 +541,11 @@
       <c r="E8">
         <v>0.5958864571975776</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8">
+        <v>29.057732348843107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -531,8 +561,11 @@
       <c r="E9">
         <v>0.56621913029657689</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9">
+        <v>32.300711208259678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -547,6 +580,9 @@
       </c>
       <c r="E10">
         <v>0.54804435376053051</v>
+      </c>
+      <c r="F10">
+        <v>35.137713665411887</v>
       </c>
     </row>
   </sheetData>
